--- a/Design Status/Status of Design.xlsx
+++ b/Design Status/Status of Design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My PC\DESIGN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Name of Work</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Regulator At Chakbara</t>
   </si>
   <si>
-    <t>Drawing Sent DC-08-0317</t>
-  </si>
-  <si>
     <t>120 ft Borelog data required</t>
   </si>
   <si>
@@ -87,6 +84,12 @@
   </si>
   <si>
     <t>19/01/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drawing Sent </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DC-08-0318</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
@@ -485,10 +488,10 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -500,13 +503,15 @@
         <v>775</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -521,14 +526,14 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>831</v>
@@ -540,7 +545,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -555,7 +560,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -572,7 +577,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -589,7 +594,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -608,7 +613,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -623,10 +628,12 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design Status/Status of Design.xlsx
+++ b/Design Status/Status of Design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\All Design\Designs_All\Design Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Name of Work</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t xml:space="preserve"> DC-08-0318</t>
+  </si>
+  <si>
+    <t>DC-08-0319</t>
+  </si>
+  <si>
+    <t>DC-08-0330</t>
+  </si>
+  <si>
+    <t>Borelog received</t>
   </si>
 </sst>
 </file>
@@ -440,7 +449,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +537,9 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -562,7 +573,9 @@
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -613,7 +626,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -632,7 +645,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Design Status/Status of Design.xlsx
+++ b/Design Status/Status of Design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\All Design\Designs_All\Design Status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dsign_All\Design Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Name of Work</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Regulator At Chakbara</t>
-  </si>
-  <si>
-    <t>120 ft Borelog data required</t>
   </si>
   <si>
     <t>Draft Sent</t>
@@ -449,7 +446,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
@@ -497,10 +494,10 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -512,14 +509,14 @@
         <v>775</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -535,16 +532,16 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>831</v>
@@ -556,7 +553,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -571,10 +568,10 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -590,7 +587,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -607,7 +604,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -626,7 +623,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -641,11 +638,11 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
